--- a/data/trans_orig/P26-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P26-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>81674</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67006</v>
+        <v>66827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96579</v>
+        <v>95930</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3352815588668504</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2750673200697037</v>
+        <v>0.2743339701634352</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3964652231737028</v>
+        <v>0.3938021690125005</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -765,19 +765,19 @@
         <v>98464</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>82760</v>
+        <v>82503</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114229</v>
+        <v>114468</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4258491099814373</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3579284684161749</v>
+        <v>0.3568203319111294</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.494030114396609</v>
+        <v>0.4950672876524932</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>174</v>
@@ -786,19 +786,19 @@
         <v>180139</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159823</v>
+        <v>156184</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>201749</v>
+        <v>200162</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3793845271415947</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3365993613747105</v>
+        <v>0.3289352658136812</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4248985379130888</v>
+        <v>0.4215547319168693</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>161925</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>147020</v>
+        <v>147669</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>176593</v>
+        <v>176772</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6647184411331496</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6035347768262972</v>
+        <v>0.6061978309874997</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7249326799302961</v>
+        <v>0.7256660298365651</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>125</v>
@@ -836,19 +836,19 @@
         <v>132754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>116989</v>
+        <v>116750</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>148458</v>
+        <v>148715</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5741508900185627</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.505969885603391</v>
+        <v>0.5049327123475059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6420715315838248</v>
+        <v>0.6431796680888704</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>286</v>
@@ -857,19 +857,19 @@
         <v>294679</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>273069</v>
+        <v>274656</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>314995</v>
+        <v>318634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6206154728584052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5751014620869114</v>
+        <v>0.5784452680831308</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6634006386252895</v>
+        <v>0.6710647341863193</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>118825</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101578</v>
+        <v>99922</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139446</v>
+        <v>138642</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2540525016691989</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2171772332162169</v>
+        <v>0.2136364601081987</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2981407432352066</v>
+        <v>0.2964217523169056</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>155</v>
@@ -982,19 +982,19 @@
         <v>155395</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135508</v>
+        <v>136445</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>176768</v>
+        <v>177781</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3359423317857108</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2929501614394004</v>
+        <v>0.2949740259526912</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3821466136758794</v>
+        <v>0.3843376950774686</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>264</v>
@@ -1003,19 +1003,19 @@
         <v>274220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>247291</v>
+        <v>247726</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>307003</v>
+        <v>305069</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2947705843232344</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2658234536574737</v>
+        <v>0.2662909332848209</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.330010460920719</v>
+        <v>0.3279305083603593</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>348894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>328273</v>
+        <v>329077</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366141</v>
+        <v>367797</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7459474983308011</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7018592567647933</v>
+        <v>0.7035782476830944</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.782822766783783</v>
+        <v>0.7863635398918013</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>305</v>
@@ -1053,19 +1053,19 @@
         <v>307170</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>285797</v>
+        <v>284784</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>327057</v>
+        <v>326120</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6640576682142892</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6178533863241206</v>
+        <v>0.6156623049225312</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7070498385605996</v>
+        <v>0.7050259740473079</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>638</v>
@@ -1074,19 +1074,19 @@
         <v>656064</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>623281</v>
+        <v>625215</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>682993</v>
+        <v>682558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7052294156767657</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6699895390792812</v>
+        <v>0.6720694916396407</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7341765463425264</v>
+        <v>0.7337090667151792</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>80916</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66668</v>
+        <v>65979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97419</v>
+        <v>96906</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2710964794860328</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2233603382302427</v>
+        <v>0.2210521572470505</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.32638799644896</v>
+        <v>0.3246677825352923</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>118</v>
@@ -1199,19 +1199,19 @@
         <v>116415</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>99270</v>
+        <v>101581</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>132401</v>
+        <v>133474</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3819371851616908</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3256879012274203</v>
+        <v>0.3332693488305496</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4343851717085088</v>
+        <v>0.4379036880643935</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>197</v>
@@ -1220,19 +1220,19 @@
         <v>197331</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>174398</v>
+        <v>175144</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>222028</v>
+        <v>220363</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3270979323578507</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2890832770979858</v>
+        <v>0.2903207976357665</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3680365601111588</v>
+        <v>0.3652764807742417</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>217560</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>201057</v>
+        <v>201570</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>231808</v>
+        <v>232497</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7289035205139672</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6736120035510399</v>
+        <v>0.6753322174647077</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7766396617697573</v>
+        <v>0.7789478427529495</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>188</v>
@@ -1270,19 +1270,19 @@
         <v>188387</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>172401</v>
+        <v>171328</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>205532</v>
+        <v>203221</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6180628148383093</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5656148282914913</v>
+        <v>0.5620963119356066</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6743120987725797</v>
+        <v>0.6667306511694507</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>400</v>
@@ -1291,19 +1291,19 @@
         <v>405947</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>381250</v>
+        <v>382915</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>428880</v>
+        <v>428134</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6729020676421492</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6319634398888411</v>
+        <v>0.6347235192257582</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7109167229020142</v>
+        <v>0.7096792023642332</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>97202</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81528</v>
+        <v>80812</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115621</v>
+        <v>115191</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2864887586784234</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2402914520665576</v>
+        <v>0.2381816445248262</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3407774991729135</v>
+        <v>0.3395102954309686</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -1416,19 +1416,19 @@
         <v>142967</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>125619</v>
+        <v>124203</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>160226</v>
+        <v>159793</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4213874678860767</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3702537063864237</v>
+        <v>0.3660817123330889</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4722567327145776</v>
+        <v>0.4709786347257741</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>246</v>
@@ -1437,19 +1437,19 @@
         <v>240169</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>215389</v>
+        <v>218316</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>265739</v>
+        <v>264932</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3539373021796398</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.317419105823562</v>
+        <v>0.3217329752974755</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3916195046364668</v>
+        <v>0.3904314465999287</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>242084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>223665</v>
+        <v>224095</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>257758</v>
+        <v>258474</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7135112413215766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6592225008270866</v>
+        <v>0.6604897045690311</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7597085479334424</v>
+        <v>0.7618183554751737</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>202</v>
@@ -1487,19 +1487,19 @@
         <v>196311</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>179052</v>
+        <v>179485</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>213659</v>
+        <v>215075</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5786125321139233</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5277432672854224</v>
+        <v>0.5290213652742259</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6297462936135763</v>
+        <v>0.6339182876669112</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>448</v>
@@ -1508,19 +1508,19 @@
         <v>438394</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>412824</v>
+        <v>413631</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>463174</v>
+        <v>460247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6460626978203602</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6083804953635332</v>
+        <v>0.6095685534000713</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6825808941764382</v>
+        <v>0.6782670247025245</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>50715</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39660</v>
+        <v>39094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62104</v>
+        <v>63259</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2829096486944924</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2212427273005186</v>
+        <v>0.21808066570008</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3464401496251705</v>
+        <v>0.3528829534740417</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>53</v>
@@ -1633,19 +1633,19 @@
         <v>56931</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45172</v>
+        <v>45824</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70043</v>
+        <v>71273</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3037101186409965</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2409821583058765</v>
+        <v>0.2444588684822014</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3736594165422945</v>
+        <v>0.380224302255965</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -1654,19 +1654,19 @@
         <v>107646</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91175</v>
+        <v>89934</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125069</v>
+        <v>127149</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2935421255226789</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2486266554732015</v>
+        <v>0.2452431277478336</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3410540027800776</v>
+        <v>0.346727427750101</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>128547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>117158</v>
+        <v>116003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>139602</v>
+        <v>140168</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7170903513055076</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6535598503748293</v>
+        <v>0.6471170465259584</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7787572726994814</v>
+        <v>0.78191933429992</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>125</v>
@@ -1704,19 +1704,19 @@
         <v>130520</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>117408</v>
+        <v>116178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142279</v>
+        <v>141627</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6962898813590035</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6263405834577056</v>
+        <v>0.6197756977440351</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7590178416941236</v>
+        <v>0.7555411315177987</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>256</v>
@@ -1725,19 +1725,19 @@
         <v>259067</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>241644</v>
+        <v>239564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>275538</v>
+        <v>276779</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7064578744773211</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6589459972199224</v>
+        <v>0.6532725722498992</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7513733445267985</v>
+        <v>0.7547568722521664</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>70611</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>57711</v>
+        <v>57623</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86180</v>
+        <v>87429</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2815030239749929</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2300775169399545</v>
+        <v>0.2297227552957717</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3435733610949038</v>
+        <v>0.3485536201604784</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>96</v>
@@ -1850,19 +1850,19 @@
         <v>97994</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>83425</v>
+        <v>82718</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>113894</v>
+        <v>113033</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3952847769932987</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3365155158206132</v>
+        <v>0.3336648183876649</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4594224915693421</v>
+        <v>0.4559472502942989</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>167</v>
@@ -1871,19 +1871,19 @@
         <v>168605</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>146328</v>
+        <v>148117</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>188348</v>
+        <v>190925</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3380598991464908</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2933941753879934</v>
+        <v>0.2969803564289498</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3776450216497184</v>
+        <v>0.3828119000216927</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>180224</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>164655</v>
+        <v>163406</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193124</v>
+        <v>193212</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7184969760250071</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6564266389050959</v>
+        <v>0.6514463798395213</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7699224830600446</v>
+        <v>0.7702772447042283</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -1921,19 +1921,19 @@
         <v>149913</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134013</v>
+        <v>134874</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>164482</v>
+        <v>165189</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6047152230067013</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5405775084306579</v>
+        <v>0.5440527497057012</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6634844841793867</v>
+        <v>0.6663351816123353</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>320</v>
@@ -1942,19 +1942,19 @@
         <v>330138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>310395</v>
+        <v>307818</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>352415</v>
+        <v>350626</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6619401008535092</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6223549783502814</v>
+        <v>0.6171880999783077</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7066058246120066</v>
+        <v>0.7030196435710506</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>175532</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>154153</v>
+        <v>154538</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>198936</v>
+        <v>199011</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3042132543257822</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.267161855553543</v>
+        <v>0.267828512694212</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3447732798105271</v>
+        <v>0.3449045789405799</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>220</v>
@@ -2067,19 +2067,19 @@
         <v>225911</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>201654</v>
+        <v>203025</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>249703</v>
+        <v>249057</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3842853288617428</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3430231432260266</v>
+        <v>0.3453553516009053</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4247560419704843</v>
+        <v>0.4236583939037333</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>396</v>
@@ -2088,19 +2088,19 @@
         <v>401443</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>370152</v>
+        <v>369657</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>434295</v>
+        <v>435768</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3446228359209373</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3177607073606143</v>
+        <v>0.3173360613964728</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3728245349646965</v>
+        <v>0.374089285214232</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>401472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>378068</v>
+        <v>377993</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>422851</v>
+        <v>422466</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6957867456742178</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6552267201894725</v>
+        <v>0.6550954210594201</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7328381444464569</v>
+        <v>0.732171487305788</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>353</v>
@@ -2138,19 +2138,19 @@
         <v>361962</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>338170</v>
+        <v>338816</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>386219</v>
+        <v>384848</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6157146711382572</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5752439580295157</v>
+        <v>0.5763416060962664</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.656976856773973</v>
+        <v>0.6546446483990944</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>742</v>
@@ -2159,19 +2159,19 @@
         <v>763434</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>730582</v>
+        <v>729109</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>794725</v>
+        <v>795220</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6553771640790627</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6271754650353036</v>
+        <v>0.625910714785768</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6822392926393857</v>
+        <v>0.6826639386035271</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>198410</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>172381</v>
+        <v>175140</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>222134</v>
+        <v>225057</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2852008680527195</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2477859378968322</v>
+        <v>0.251752471868237</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3193025958945721</v>
+        <v>0.3235039681676621</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>241</v>
@@ -2284,19 +2284,19 @@
         <v>252752</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>227354</v>
+        <v>227802</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>280346</v>
+        <v>277757</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3456231653978369</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.310893118793317</v>
+        <v>0.3115058604351432</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3833559559183972</v>
+        <v>0.3798158682506045</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>433</v>
@@ -2305,19 +2305,19 @@
         <v>451161</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>417323</v>
+        <v>414341</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>487065</v>
+        <v>486800</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3161659152733237</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2924528404208012</v>
+        <v>0.2903627654610481</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.341326429831665</v>
+        <v>0.3411404052147556</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>497274</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>473550</v>
+        <v>470627</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>523303</v>
+        <v>520544</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7147991319472804</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6806974041054279</v>
+        <v>0.6764960318323379</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7522140621031678</v>
+        <v>0.7482475281317631</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>455</v>
@@ -2355,19 +2355,19 @@
         <v>478541</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>450947</v>
+        <v>453536</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>503939</v>
+        <v>503491</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.654376834602163</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6166440440816027</v>
+        <v>0.6201841317493954</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6891068812066828</v>
+        <v>0.6884941395648568</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>951</v>
@@ -2376,19 +2376,19 @@
         <v>975816</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>939912</v>
+        <v>940177</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1009654</v>
+        <v>1012636</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6838340847266764</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6586735701683349</v>
+        <v>0.6588595947852441</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7075471595791988</v>
+        <v>0.7096372345389519</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>873885</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>825789</v>
+        <v>826315</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>926213</v>
+        <v>931572</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2863444452436598</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2705848050544009</v>
+        <v>0.2707574411682034</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3034906767651023</v>
+        <v>0.3052467026159444</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1124</v>
@@ -2501,19 +2501,19 @@
         <v>1146829</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1091059</v>
+        <v>1092916</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1201945</v>
+        <v>1198023</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3708556685110074</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3528210550823786</v>
+        <v>0.3534214360958988</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3886787421808803</v>
+        <v>0.3874104871631546</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1980</v>
@@ -2522,19 +2522,19 @@
         <v>2020714</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1950996</v>
+        <v>1950890</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2095889</v>
+        <v>2095334</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.328878730484034</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3175317697436003</v>
+        <v>0.3175145461258579</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3411137268497172</v>
+        <v>0.3410233680397469</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2177981</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2125653</v>
+        <v>2120294</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2226077</v>
+        <v>2225551</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7136555547563402</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6965093232348978</v>
+        <v>0.6947532973840556</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7294151949455991</v>
+        <v>0.7292425588317967</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1898</v>
@@ -2572,19 +2572,19 @@
         <v>1945558</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1890442</v>
+        <v>1894364</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2001328</v>
+        <v>1999471</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6291443314889926</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6113212578191196</v>
+        <v>0.6125895128368453</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6471789449176214</v>
+        <v>0.6465785639041011</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4041</v>
@@ -2593,19 +2593,19 @@
         <v>4123539</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4048364</v>
+        <v>4048919</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4193257</v>
+        <v>4193363</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.671121269515966</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6588862731502828</v>
+        <v>0.6589766319602531</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6824682302563996</v>
+        <v>0.6824854538741422</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>108559</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92473</v>
+        <v>91699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>125476</v>
+        <v>124997</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3864411540283704</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3291787416344353</v>
+        <v>0.3264254518554413</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4466637326016898</v>
+        <v>0.4449589860013948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>103</v>
@@ -2962,19 +2962,19 @@
         <v>117541</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>100583</v>
+        <v>100316</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134983</v>
+        <v>134316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4241576372152774</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3629647001282768</v>
+        <v>0.3620002933577307</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4871003389189204</v>
+        <v>0.4846922729857014</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>206</v>
@@ -2983,19 +2983,19 @@
         <v>226100</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>203404</v>
+        <v>201760</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>252116</v>
+        <v>248646</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4051708873478951</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3645012396019512</v>
+        <v>0.3615540084521384</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4517928482016984</v>
+        <v>0.4455745484741617</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>172360</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>155443</v>
+        <v>155922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>188446</v>
+        <v>189220</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6135588459716297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.55333626739831</v>
+        <v>0.5550410139986055</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6708212583655646</v>
+        <v>0.6735745481445586</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>144</v>
@@ -3033,19 +3033,19 @@
         <v>159575</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142133</v>
+        <v>142800</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>176533</v>
+        <v>176800</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5758423627847226</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5128996610810798</v>
+        <v>0.5153077270142985</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6370352998717236</v>
+        <v>0.6379997066422692</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>309</v>
@@ -3054,19 +3054,19 @@
         <v>331935</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>305919</v>
+        <v>309389</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>354631</v>
+        <v>356275</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5948291126521049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5482071517983019</v>
+        <v>0.5544254515258382</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6354987603980489</v>
+        <v>0.6384459915478616</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>160729</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>140113</v>
+        <v>140703</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>181774</v>
+        <v>183137</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3258325963559326</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2840391604816553</v>
+        <v>0.2852365390297128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3684963818585413</v>
+        <v>0.3712589476083109</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>196</v>
@@ -3179,19 +3179,19 @@
         <v>210549</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>188561</v>
+        <v>188749</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>234648</v>
+        <v>234465</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4120155358627643</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3689880993456263</v>
+        <v>0.3693562570852656</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4591729996211241</v>
+        <v>0.4588159327498891</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>348</v>
@@ -3200,19 +3200,19 @@
         <v>371278</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>341412</v>
+        <v>337997</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>402605</v>
+        <v>402301</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3696849955004266</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3399468740655472</v>
+        <v>0.3365465152046248</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.400877143806353</v>
+        <v>0.4005749945399398</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>332558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>311513</v>
+        <v>310150</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>353174</v>
+        <v>352584</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6741674036440675</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6315036181414586</v>
+        <v>0.6287410523916889</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7159608395183447</v>
+        <v>0.7147634609702864</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>272</v>
@@ -3250,19 +3250,19 @@
         <v>300473</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>276374</v>
+        <v>276557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322461</v>
+        <v>322273</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5879844641372357</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5408270003788759</v>
+        <v>0.541184067250111</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6310119006543736</v>
+        <v>0.6306437429147345</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>583</v>
@@ -3271,19 +3271,19 @@
         <v>633031</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>601704</v>
+        <v>602008</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>662897</v>
+        <v>666312</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6303150044995733</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5991228561936467</v>
+        <v>0.5994250054600602</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6600531259344526</v>
+        <v>0.6634534847953752</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>108020</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93563</v>
+        <v>92962</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>124923</v>
+        <v>125317</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3557822538235266</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3081670704211726</v>
+        <v>0.306187028035227</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4114560685301468</v>
+        <v>0.4127546504880527</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -3396,19 +3396,19 @@
         <v>110393</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>93564</v>
+        <v>92876</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128430</v>
+        <v>128885</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3603241463950446</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3053957059731652</v>
+        <v>0.3031484870546402</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4191990991238729</v>
+        <v>0.420684027418698</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>214</v>
@@ -3417,19 +3417,19 @@
         <v>218412</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>193869</v>
+        <v>196294</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>242723</v>
+        <v>243809</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3580634676262033</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3178279177719049</v>
+        <v>0.3218037456601381</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3979175904511233</v>
+        <v>0.399698862566673</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>195592</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178689</v>
+        <v>178295</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>210049</v>
+        <v>210650</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6442177461764734</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5885439314698533</v>
+        <v>0.5872453495119474</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6918329295788275</v>
+        <v>0.6938129719647732</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>182</v>
@@ -3467,19 +3467,19 @@
         <v>195977</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>177940</v>
+        <v>177485</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>212806</v>
+        <v>213494</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6396758536049554</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5808009008761271</v>
+        <v>0.5793159725813021</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6946042940268349</v>
+        <v>0.6968515129453599</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>371</v>
@@ -3488,19 +3488,19 @@
         <v>391570</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>367259</v>
+        <v>366173</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>416113</v>
+        <v>413688</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6419365323737967</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6020824095488767</v>
+        <v>0.600301137433327</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.682172082228095</v>
+        <v>0.678196254339862</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>106745</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89163</v>
+        <v>88337</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126257</v>
+        <v>125935</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2911482592106425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2431945769320861</v>
+        <v>0.2409419061327031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3443700725655837</v>
+        <v>0.3434900463489917</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>108</v>
@@ -3613,19 +3613,19 @@
         <v>111483</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>95055</v>
+        <v>94870</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130466</v>
+        <v>130138</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2953261617607573</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2518062994875655</v>
+        <v>0.251316396647471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.345611805845971</v>
+        <v>0.3447433691363936</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>205</v>
@@ -3634,19 +3634,19 @@
         <v>218228</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>194045</v>
+        <v>194169</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>243700</v>
+        <v>243306</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2932676927425916</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2607691837862549</v>
+        <v>0.2609366584748822</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3274986275771465</v>
+        <v>0.3269695630013718</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>259888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>240376</v>
+        <v>240698</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>277470</v>
+        <v>278296</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7088517407893574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6556299274344164</v>
+        <v>0.6565099536510085</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.756805423067914</v>
+        <v>0.7590580938672969</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>252</v>
@@ -3684,19 +3684,19 @@
         <v>266009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>247026</v>
+        <v>247354</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>282437</v>
+        <v>282622</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7046738382392427</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.654388194154029</v>
+        <v>0.6552566308636062</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7481937005124348</v>
+        <v>0.748683603352529</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>492</v>
@@ -3705,19 +3705,19 @@
         <v>525897</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>500425</v>
+        <v>500819</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>550080</v>
+        <v>549956</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7067323072574084</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6725013724228536</v>
+        <v>0.6730304369986284</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.739230816213745</v>
+        <v>0.7390633415251179</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>70287</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55852</v>
+        <v>54787</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85846</v>
+        <v>84346</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3305767348748071</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2626865498613233</v>
+        <v>0.2576775733632489</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4037589988336795</v>
+        <v>0.3967025728971562</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -3830,19 +3830,19 @@
         <v>86390</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72430</v>
+        <v>71749</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>102069</v>
+        <v>101475</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.401460931071737</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3365880687655688</v>
+        <v>0.3334257523528393</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4743254203275139</v>
+        <v>0.4715625671964659</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>148</v>
@@ -3851,19 +3851,19 @@
         <v>156676</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>135147</v>
+        <v>134823</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177003</v>
+        <v>177332</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3662317688232589</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3159060522169085</v>
+        <v>0.3151495566353971</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4137464390155285</v>
+        <v>0.4145146840204051</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>142331</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>126772</v>
+        <v>128272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>156766</v>
+        <v>157831</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6694232651251929</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5962410011663207</v>
+        <v>0.6032974271028443</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7373134501386768</v>
+        <v>0.7423224266367514</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>124</v>
@@ -3901,19 +3901,19 @@
         <v>128798</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>113119</v>
+        <v>113713</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142758</v>
+        <v>143439</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5985390689282629</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5256745796724861</v>
+        <v>0.5284374328035341</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6634119312344311</v>
+        <v>0.6665742476471607</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>256</v>
@@ -3922,19 +3922,19 @@
         <v>271130</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>250803</v>
+        <v>250474</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>292659</v>
+        <v>292983</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6337682311767411</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5862535609844713</v>
+        <v>0.5854853159795947</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6840939477830914</v>
+        <v>0.684850443364603</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>77819</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62988</v>
+        <v>64061</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>95351</v>
+        <v>93572</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3023147546717934</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.244700278722943</v>
+        <v>0.2488670903586357</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.370427295129993</v>
+        <v>0.3635162058066199</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -4047,19 +4047,19 @@
         <v>110962</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>95714</v>
+        <v>95377</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>128077</v>
+        <v>127521</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4365795660203234</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3765873064794348</v>
+        <v>0.3752622923563217</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5039176920866336</v>
+        <v>0.5017305967669673</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>182</v>
@@ -4068,19 +4068,19 @@
         <v>188781</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>166888</v>
+        <v>166562</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>210979</v>
+        <v>209262</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3690211445235662</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3262259785288315</v>
+        <v>0.3255883665406149</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4124133378245376</v>
+        <v>0.4090584691687849</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>179590</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>162058</v>
+        <v>163837</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194421</v>
+        <v>193348</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6976852453282066</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6295727048700072</v>
+        <v>0.6364837941933806</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7552997212770572</v>
+        <v>0.7511329096413646</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>137</v>
@@ -4118,19 +4118,19 @@
         <v>143200</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>126085</v>
+        <v>126641</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>158448</v>
+        <v>158785</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5634204339796766</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4960823079133667</v>
+        <v>0.4982694032330329</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6234126935205652</v>
+        <v>0.6247377076436784</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>308</v>
@@ -4139,19 +4139,19 @@
         <v>322790</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>300592</v>
+        <v>302309</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>344683</v>
+        <v>345009</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6309788554764338</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5875866621754622</v>
+        <v>0.5909415308312151</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6737740214711684</v>
+        <v>0.6744116334593849</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>208070</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>184889</v>
+        <v>185300</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>234953</v>
+        <v>234651</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3421513527014091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3040333081981159</v>
+        <v>0.3047085635493758</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.386358972218847</v>
+        <v>0.3858620491497004</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>247</v>
@@ -4264,19 +4264,19 @@
         <v>262585</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>238668</v>
+        <v>237493</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>290282</v>
+        <v>288926</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.42281080564002</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3843004680910752</v>
+        <v>0.382407513423956</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4674084093357733</v>
+        <v>0.465225559132434</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>444</v>
@@ -4285,19 +4285,19 @@
         <v>470655</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>437272</v>
+        <v>432674</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>508176</v>
+        <v>503416</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.382905127237394</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.355746146856381</v>
+        <v>0.3520055936886825</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.413431179234568</v>
+        <v>0.409558681601278</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>400052</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>373169</v>
+        <v>373471</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>423233</v>
+        <v>422822</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6578486472985908</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6136410277811529</v>
+        <v>0.6141379508502995</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6959666918018841</v>
+        <v>0.6952914364506241</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>326</v>
@@ -4335,19 +4335,19 @@
         <v>358461</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>330764</v>
+        <v>332120</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>382378</v>
+        <v>383553</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.57718919435998</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5325915906642267</v>
+        <v>0.5347744408675661</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6156995319089249</v>
+        <v>0.6175924865760442</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>696</v>
@@ -4356,19 +4356,19 @@
         <v>758513</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>720992</v>
+        <v>725752</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>791896</v>
+        <v>796494</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.617094872762606</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5865688207654322</v>
+        <v>0.5904413183987218</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6442538531436188</v>
+        <v>0.6479944063113174</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>238554</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>212565</v>
+        <v>212400</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>264738</v>
+        <v>265947</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3147658002433312</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2804744164250977</v>
+        <v>0.280256664106011</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3493147413282848</v>
+        <v>0.3509109718585309</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>267</v>
@@ -4481,19 +4481,19 @@
         <v>292553</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>264749</v>
+        <v>263179</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>322053</v>
+        <v>321355</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3655108650315206</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3307719485445501</v>
+        <v>0.3288110460348151</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4023669155405649</v>
+        <v>0.4014953511259496</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>485</v>
@@ -4502,19 +4502,19 @@
         <v>531107</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>492560</v>
+        <v>495318</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>570203</v>
+        <v>574165</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3408306449652544</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3160934044479916</v>
+        <v>0.3178635806256752</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3659200213134826</v>
+        <v>0.3684624763620999</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>519323</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>493139</v>
+        <v>491930</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>545312</v>
+        <v>545477</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6852341997566689</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6506852586717152</v>
+        <v>0.6490890281414691</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7195255835749023</v>
+        <v>0.719743335893989</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>468</v>
@@ -4552,19 +4552,19 @@
         <v>507843</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>478343</v>
+        <v>479041</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>535647</v>
+        <v>537217</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6344891349684794</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5976330844594352</v>
+        <v>0.5985046488740505</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6692280514554501</v>
+        <v>0.6711889539651849</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>949</v>
@@ -4573,19 +4573,19 @@
         <v>1027166</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>988070</v>
+        <v>984108</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1065713</v>
+        <v>1062955</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6591693550347456</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6340799786865176</v>
+        <v>0.6315375236379001</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6839065955520084</v>
+        <v>0.6821364193743247</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1078781</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1018936</v>
+        <v>1029387</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1130822</v>
+        <v>1133642</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3288486952826808</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3106059583919552</v>
+        <v>0.313791861544638</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3447125344935202</v>
+        <v>0.3455722385912038</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1215</v>
@@ -4698,19 +4698,19 @@
         <v>1302456</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1244971</v>
+        <v>1241515</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1362857</v>
+        <v>1362598</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3873137633481952</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3702195277666105</v>
+        <v>0.3691918211948201</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4052755009581617</v>
+        <v>0.4051984659763086</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2232</v>
@@ -4719,19 +4719,19 @@
         <v>2381237</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2293787</v>
+        <v>2299785</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2462926</v>
+        <v>2458632</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3584434419315545</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3452798315826338</v>
+        <v>0.3461827164662653</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3707399818512888</v>
+        <v>0.3700936182335494</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2201696</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2149655</v>
+        <v>2146835</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2261541</v>
+        <v>2251090</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6711513047173192</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6552874655064794</v>
+        <v>0.6544277614087959</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6893940416080447</v>
+        <v>0.6862081384553619</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1905</v>
@@ -4769,19 +4769,19 @@
         <v>2060336</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1999935</v>
+        <v>2000194</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2117821</v>
+        <v>2121277</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6126862366518049</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5947244990418383</v>
+        <v>0.5948015340236916</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6297804722333897</v>
+        <v>0.63080817880518</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3964</v>
@@ -4790,19 +4790,19 @@
         <v>4262033</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4180344</v>
+        <v>4184638</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4349483</v>
+        <v>4343485</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6415565580684455</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6292600181487111</v>
+        <v>0.6299063817664506</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6547201684173662</v>
+        <v>0.6538172835337348</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>89678</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73449</v>
+        <v>74004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105567</v>
+        <v>104885</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3418168112433309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2799575037522941</v>
+        <v>0.2820745210631526</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.402379078788059</v>
+        <v>0.3997778730326957</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>99</v>
@@ -5159,19 +5159,19 @@
         <v>101948</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85668</v>
+        <v>86323</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117291</v>
+        <v>118199</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3899446723886099</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3276752873653665</v>
+        <v>0.3301825842507189</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4486336751108435</v>
+        <v>0.452104365983126</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>180</v>
@@ -5180,19 +5180,19 @@
         <v>191625</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>170799</v>
+        <v>169060</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>215881</v>
+        <v>213705</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3658386664821389</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3260785421237433</v>
+        <v>0.3227581314453044</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.412146309616832</v>
+        <v>0.4079911587400647</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>172679</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>156790</v>
+        <v>157472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>188908</v>
+        <v>188353</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6581831887566691</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5976209212119405</v>
+        <v>0.6002221269673046</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7200424962477057</v>
+        <v>0.7179254789368475</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -5230,19 +5230,19 @@
         <v>159493</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>144150</v>
+        <v>143242</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175773</v>
+        <v>175118</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6100553276113901</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5513663248891567</v>
+        <v>0.5478956340168741</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6723247126346339</v>
+        <v>0.6698174157492821</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>310</v>
@@ -5251,19 +5251,19 @@
         <v>332172</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>307916</v>
+        <v>310092</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>352998</v>
+        <v>354737</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6341613335178612</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5878536903831674</v>
+        <v>0.5920088412599352</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6739214578762566</v>
+        <v>0.677241868554696</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>114319</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96014</v>
+        <v>94512</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>132092</v>
+        <v>134633</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2315227627047663</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.194451191159085</v>
+        <v>0.191409335830439</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2675166551894032</v>
+        <v>0.272663760364353</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>158</v>
@@ -5376,19 +5376,19 @@
         <v>167609</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>145452</v>
+        <v>146931</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>188216</v>
+        <v>190276</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3292895051774903</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2857577945424101</v>
+        <v>0.2886650822603596</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3697737811197521</v>
+        <v>0.3738208364625229</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>267</v>
@@ -5397,19 +5397,19 @@
         <v>281928</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>252293</v>
+        <v>252245</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>310660</v>
+        <v>307674</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2811487183866225</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2515950037767196</v>
+        <v>0.2515471814764253</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3098010308452353</v>
+        <v>0.3068232082577614</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>379451</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>361678</v>
+        <v>359137</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>397756</v>
+        <v>399258</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7684772372952338</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7324833448105968</v>
+        <v>0.727336239635647</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.805548808840915</v>
+        <v>0.808590664169561</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>314</v>
@@ -5447,19 +5447,19 @@
         <v>341394</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>320787</v>
+        <v>318727</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>363551</v>
+        <v>362072</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6707104948225097</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6302262188802478</v>
+        <v>0.626179163537477</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7142422054575897</v>
+        <v>0.7113349177396404</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>672</v>
@@ -5468,19 +5468,19 @@
         <v>720845</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>692113</v>
+        <v>695099</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>750480</v>
+        <v>750528</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7188512816133775</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6901989691547646</v>
+        <v>0.6931767917422386</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7484049962232804</v>
+        <v>0.7484528185235747</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>55690</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43780</v>
+        <v>44195</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68949</v>
+        <v>69869</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1810347560314603</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1423176124688544</v>
+        <v>0.1436658109743748</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2241359137748869</v>
+        <v>0.2271276534979447</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -5593,19 +5593,19 @@
         <v>42513</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30663</v>
+        <v>30689</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56233</v>
+        <v>56152</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1334462176994665</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09624776322478126</v>
+        <v>0.09633068465226119</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1765123325728165</v>
+        <v>0.1762560080327767</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>100</v>
@@ -5614,19 +5614,19 @@
         <v>98203</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>81807</v>
+        <v>81610</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>119258</v>
+        <v>116960</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1568240616926876</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1306405106637567</v>
+        <v>0.1303254198199384</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1904476436232906</v>
+        <v>0.1867780952104068</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>251931</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238672</v>
+        <v>237752</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>263841</v>
+        <v>263426</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8189652439685398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7758640862251132</v>
+        <v>0.7728723465020554</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8576823875311457</v>
+        <v>0.8563341890256253</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>274</v>
@@ -5664,19 +5664,19 @@
         <v>276067</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>262347</v>
+        <v>262428</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>287917</v>
+        <v>287891</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8665537823005335</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8234876674271837</v>
+        <v>0.8237439919672236</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9037522367752192</v>
+        <v>0.903669315347739</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>538</v>
@@ -5685,19 +5685,19 @@
         <v>527997</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>506942</v>
+        <v>509240</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>544393</v>
+        <v>544590</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8431759383073124</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8095523563767094</v>
+        <v>0.813221904789593</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8693594893362431</v>
+        <v>0.8696745801800613</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>97228</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79771</v>
+        <v>80040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113926</v>
+        <v>114338</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2869312932399393</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.235413939500615</v>
+        <v>0.2362068099627325</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3362097691442551</v>
+        <v>0.3374235039945624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -5810,19 +5810,19 @@
         <v>102285</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>84906</v>
+        <v>84256</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120518</v>
+        <v>120225</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2914903367701601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2419642251802569</v>
+        <v>0.2401094493752121</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3434500896547866</v>
+        <v>0.3426142850779067</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>186</v>
@@ -5831,19 +5831,19 @@
         <v>199514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>175530</v>
+        <v>172935</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>227143</v>
+        <v>224256</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2892506370122049</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2544792078660167</v>
+        <v>0.2507170213020331</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3293072217036727</v>
+        <v>0.325121678056131</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>241627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>224929</v>
+        <v>224517</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>259084</v>
+        <v>258815</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7130687067600607</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6637902308557448</v>
+        <v>0.6625764960054376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7645860604993849</v>
+        <v>0.7637931900372672</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>231</v>
@@ -5881,19 +5881,19 @@
         <v>248620</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>230387</v>
+        <v>230680</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>265999</v>
+        <v>266649</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7085096632298399</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6565499103452138</v>
+        <v>0.6573857149220934</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7580357748197432</v>
+        <v>0.7598905506247879</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>466</v>
@@ -5902,19 +5902,19 @@
         <v>490246</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>462617</v>
+        <v>465504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>514230</v>
+        <v>516825</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7107493629877951</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6706927782963273</v>
+        <v>0.6748783219438691</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7455207921339831</v>
+        <v>0.749282978697967</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>53202</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41459</v>
+        <v>40566</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65215</v>
+        <v>64465</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2736910990361598</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2132792564010167</v>
+        <v>0.2086873498519762</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3354881124073102</v>
+        <v>0.331632383094483</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -6027,19 +6027,19 @@
         <v>45433</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34518</v>
+        <v>35296</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59508</v>
+        <v>59169</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2180401176785748</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1656552736255771</v>
+        <v>0.1693897298836042</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2855883672336814</v>
+        <v>0.283959774216982</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>101</v>
@@ -6048,19 +6048,19 @@
         <v>98635</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>80911</v>
+        <v>82309</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115827</v>
+        <v>115593</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2448996406427647</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2008916422122033</v>
+        <v>0.2043635775858063</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.287584951247641</v>
+        <v>0.2870039895693254</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>141186</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>129173</v>
+        <v>129923</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>152929</v>
+        <v>153822</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7263089009638402</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6645118875926898</v>
+        <v>0.6683676169055169</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7867207435989834</v>
+        <v>0.7913126501480239</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>166</v>
@@ -6098,19 +6098,19 @@
         <v>162937</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>148862</v>
+        <v>149201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173852</v>
+        <v>173074</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7819598823214252</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7144116327663185</v>
+        <v>0.7160402257830178</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8343447263744229</v>
+        <v>0.8306102701163957</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>308</v>
@@ -6119,19 +6119,19 @@
         <v>304122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>286930</v>
+        <v>287164</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>321846</v>
+        <v>320448</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7551003593572353</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7124150487523591</v>
+        <v>0.7129960104306746</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7991083577877968</v>
+        <v>0.7956364224141936</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>57067</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45287</v>
+        <v>44162</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71287</v>
+        <v>70429</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2375448175516572</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1885096214676362</v>
+        <v>0.1838279398182754</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.296734866805841</v>
+        <v>0.2931616813023534</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>73</v>
@@ -6244,19 +6244,19 @@
         <v>73474</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60646</v>
+        <v>59521</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>87889</v>
+        <v>88386</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2974871416797229</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.245547356032669</v>
+        <v>0.2409940717240797</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3558531789624249</v>
+        <v>0.3578652049604243</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>129</v>
@@ -6265,19 +6265,19 @@
         <v>130541</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>111289</v>
+        <v>112971</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>151176</v>
+        <v>150123</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2679307417429199</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2284176232538247</v>
+        <v>0.2318684736755656</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3102826807880704</v>
+        <v>0.3081230213978079</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>183171</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>168951</v>
+        <v>169809</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194951</v>
+        <v>196076</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7624551824483428</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.703265133194159</v>
+        <v>0.7068383186976466</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8114903785323639</v>
+        <v>0.8161720601817246</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>166</v>
@@ -6315,19 +6315,19 @@
         <v>173507</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>159092</v>
+        <v>158595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>186335</v>
+        <v>187460</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7025128583202771</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6441468210375751</v>
+        <v>0.6421347950395757</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.754452643967331</v>
+        <v>0.7590059282759201</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>348</v>
@@ -6336,19 +6336,19 @@
         <v>356678</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>336043</v>
+        <v>337096</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>375930</v>
+        <v>374248</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7320692582570801</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6897173192119294</v>
+        <v>0.6918769786021922</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.771582376746175</v>
+        <v>0.7681315263244345</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>159070</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>135346</v>
+        <v>137417</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>181229</v>
+        <v>185137</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2697802328390815</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2295452420930723</v>
+        <v>0.233057281640387</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3073620842895416</v>
+        <v>0.3139899635434081</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>178</v>
@@ -6461,19 +6461,19 @@
         <v>185891</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>163393</v>
+        <v>163320</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>209333</v>
+        <v>210991</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3027833907673467</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2661381682745496</v>
+        <v>0.2660179158937621</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3409648468285739</v>
+        <v>0.3436657253830451</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>315</v>
@@ -6482,19 +6482,19 @@
         <v>344961</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>316093</v>
+        <v>312145</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>379720</v>
+        <v>377812</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2866151859751995</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.262630136561466</v>
+        <v>0.259349390949774</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3154954036516494</v>
+        <v>0.3139100351839305</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>430557</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>408398</v>
+        <v>404490</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>454281</v>
+        <v>452210</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7302197671609184</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6926379157104585</v>
+        <v>0.6860100364565923</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7704547579069279</v>
+        <v>0.7669427183596133</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>398</v>
@@ -6532,19 +6532,19 @@
         <v>428051</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>404609</v>
+        <v>402951</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>450549</v>
+        <v>450622</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6972166092326533</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6590351531714261</v>
+        <v>0.6563342746169548</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7338618317254503</v>
+        <v>0.7339820841062377</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>780</v>
@@ -6553,19 +6553,19 @@
         <v>858608</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>823849</v>
+        <v>825757</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>887476</v>
+        <v>891424</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7133848140248006</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6845045963483506</v>
+        <v>0.6860899648160693</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7373698634385339</v>
+        <v>0.7406506090502258</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>168533</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>143768</v>
+        <v>144579</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>191017</v>
+        <v>192178</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2327519228117164</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1985505342313357</v>
+        <v>0.1996709497076118</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2638035911350821</v>
+        <v>0.2654066808866378</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>150</v>
@@ -6678,19 +6678,19 @@
         <v>159097</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>136654</v>
+        <v>135766</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>183747</v>
+        <v>183335</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2055207757215965</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1765291564546645</v>
+        <v>0.1753820013439072</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2373633166607591</v>
+        <v>0.2368317294064486</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>311</v>
@@ -6699,19 +6699,19 @@
         <v>327630</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>295016</v>
+        <v>292973</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>362421</v>
+        <v>360572</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2186816783600801</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1969128414035218</v>
+        <v>0.1955493224974958</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.241903720738942</v>
+        <v>0.2406697795422404</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>555554</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>533070</v>
+        <v>531909</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>580319</v>
+        <v>579508</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7672480771882836</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7361964088649179</v>
+        <v>0.7345933191133621</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8014494657686639</v>
+        <v>0.8003290502923882</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>559</v>
@@ -6749,19 +6749,19 @@
         <v>615020</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>590370</v>
+        <v>590782</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>637463</v>
+        <v>638351</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7944792242784035</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7626366833392411</v>
+        <v>0.7631682705935513</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8234708435453355</v>
+        <v>0.8246179986560928</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1094</v>
@@ -6770,19 +6770,19 @@
         <v>1170574</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1135783</v>
+        <v>1137632</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1203188</v>
+        <v>1205231</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.78131832163992</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7580962792610579</v>
+        <v>0.7593302204577598</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8030871585964781</v>
+        <v>0.8044506775025047</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>794787</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>748210</v>
+        <v>743291</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>849146</v>
+        <v>844942</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2522378595215464</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2374560259055203</v>
+        <v>0.2358948852814398</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2694897058107504</v>
+        <v>0.2681552675323045</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>844</v>
@@ -6895,19 +6895,19 @@
         <v>878250</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>828038</v>
+        <v>827483</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>933763</v>
+        <v>925754</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2674871036670893</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2521939674098385</v>
+        <v>0.252025069490217</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2843944411464815</v>
+        <v>0.2819551037244463</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1589</v>
@@ -6916,19 +6916,19 @@
         <v>1673037</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1603038</v>
+        <v>1603740</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1746552</v>
+        <v>1750597</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2600193706007274</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2491402588457756</v>
+        <v>0.2492494024021447</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2714448013132445</v>
+        <v>0.2720735874534042</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2356155</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2301796</v>
+        <v>2306000</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2402732</v>
+        <v>2407651</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7477621404784537</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7305102941892495</v>
+        <v>0.7318447324676953</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7625439740944796</v>
+        <v>0.76410511471856</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2262</v>
@@ -6966,19 +6966,19 @@
         <v>2405087</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2349574</v>
+        <v>2357583</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2455299</v>
+        <v>2455854</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7325128963329107</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7156055588535196</v>
+        <v>0.7180448962755535</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7478060325901615</v>
+        <v>0.7479749305097827</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4516</v>
@@ -6987,19 +6987,19 @@
         <v>4761242</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4687727</v>
+        <v>4683682</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4831241</v>
+        <v>4830539</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7399806293992726</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7285551986867554</v>
+        <v>0.727926412546596</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7508597411542245</v>
+        <v>0.7507505975978552</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>46051</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33349</v>
+        <v>32141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59772</v>
+        <v>59629</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1660164764757742</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1202255713274047</v>
+        <v>0.1158686983958585</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.215480749769066</v>
+        <v>0.2149669004378953</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -7356,19 +7356,19 @@
         <v>56762</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46470</v>
+        <v>45349</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71489</v>
+        <v>70092</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2056567902253871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1683688262983503</v>
+        <v>0.1643064360999394</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.25901481904692</v>
+        <v>0.2539561908330357</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>131</v>
@@ -7377,19 +7377,19 @@
         <v>102813</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>86530</v>
+        <v>87223</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>122531</v>
+        <v>124511</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1857869893596222</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.156364084819989</v>
+        <v>0.1576155169612629</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2214186655298316</v>
+        <v>0.2249972166036449</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>231338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>217617</v>
+        <v>217760</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244040</v>
+        <v>245248</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8339835235242259</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7845192502309341</v>
+        <v>0.7850330995621047</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8797744286725953</v>
+        <v>0.8841313016041416</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>372</v>
@@ -7427,19 +7427,19 @@
         <v>219240</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>204513</v>
+        <v>205910</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>229532</v>
+        <v>230653</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7943432097746129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7409851809530799</v>
+        <v>0.7460438091669642</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8316311737016499</v>
+        <v>0.8356935639000607</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>617</v>
@@ -7448,19 +7448,19 @@
         <v>450578</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>430860</v>
+        <v>428880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>466861</v>
+        <v>466168</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8142130106403779</v>
+        <v>0.8142130106403778</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7785813344701685</v>
+        <v>0.7750027833963552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.843635915180011</v>
+        <v>0.8423844830387373</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>46534</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30617</v>
+        <v>29881</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70932</v>
+        <v>67767</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09318986291873051</v>
+        <v>0.09318986291873053</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06131307866709584</v>
+        <v>0.05984048947298578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1420485874313165</v>
+        <v>0.1357121553639555</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -7573,19 +7573,19 @@
         <v>62355</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49328</v>
+        <v>50420</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77942</v>
+        <v>77916</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1230053360884904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09730758452749648</v>
+        <v>0.0994617107900455</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1537525186243325</v>
+        <v>0.1537008107915109</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -7594,19 +7594,19 @@
         <v>108890</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88090</v>
+        <v>87016</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>137316</v>
+        <v>135369</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1082099834434846</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08753987654957993</v>
+        <v>0.08647277679443552</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1364589736939049</v>
+        <v>0.1345244717419098</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>452813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>428415</v>
+        <v>431580</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>468730</v>
+        <v>469466</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9068101370812695</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8579514125686835</v>
+        <v>0.8642878446360448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9386869213329041</v>
+        <v>0.9401595105270144</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>581</v>
@@ -7644,19 +7644,19 @@
         <v>444578</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>428991</v>
+        <v>429017</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>457605</v>
+        <v>456513</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8769946639115096</v>
+        <v>0.8769946639115095</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8462474813756674</v>
+        <v>0.8462991892084893</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9026924154725035</v>
+        <v>0.9005382892099545</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>912</v>
@@ -7665,19 +7665,19 @@
         <v>897391</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>868965</v>
+        <v>870912</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>918191</v>
+        <v>919265</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8917900165565155</v>
+        <v>0.8917900165565154</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8635410263060952</v>
+        <v>0.8654755282580904</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9124601234504202</v>
+        <v>0.9135272232055645</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>23366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15812</v>
+        <v>15740</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33907</v>
+        <v>33610</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07890605855575603</v>
+        <v>0.07890605855575604</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05339681334202065</v>
+        <v>0.05315529345462613</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1145031934508513</v>
+        <v>0.1135015587891715</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -7790,19 +7790,19 @@
         <v>50247</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39689</v>
+        <v>39456</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63602</v>
+        <v>63511</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1523653685396828</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1203503506086683</v>
+        <v>0.1196432001987332</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1928609911758004</v>
+        <v>0.1925865703911706</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>92</v>
@@ -7811,19 +7811,19 @@
         <v>73613</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61006</v>
+        <v>58920</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88429</v>
+        <v>90433</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1176109587464891</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09746911731453146</v>
+        <v>0.09413689066484494</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1412833193026138</v>
+        <v>0.1444852725463674</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>272754</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>262213</v>
+        <v>262510</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>280308</v>
+        <v>280380</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9210939414442437</v>
+        <v>0.9210939414442439</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8854968065491485</v>
+        <v>0.8864984412108288</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.946603186657979</v>
+        <v>0.9468447065453739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>424</v>
@@ -7861,19 +7861,19 @@
         <v>279533</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>266178</v>
+        <v>266269</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>290091</v>
+        <v>290324</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8476346314603173</v>
+        <v>0.847634631460317</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8071390088241996</v>
+        <v>0.8074134296088294</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8796496493913316</v>
+        <v>0.8803567998012669</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>731</v>
@@ -7882,19 +7882,19 @@
         <v>552287</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>537471</v>
+        <v>535467</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>564894</v>
+        <v>566980</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8823890412535107</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8587166806973863</v>
+        <v>0.8555147274536326</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9025308826854687</v>
+        <v>0.9058631093351545</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>43869</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29687</v>
+        <v>28544</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64331</v>
+        <v>64000</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1441119333018232</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09752279748089464</v>
+        <v>0.09376723641135205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2113321192421643</v>
+        <v>0.210244747504765</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -8007,19 +8007,19 @@
         <v>46371</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35255</v>
+        <v>34386</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62031</v>
+        <v>60401</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1292114623159456</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09823690217873692</v>
+        <v>0.09581450301862346</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1728484509355411</v>
+        <v>0.1683061776040305</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>86</v>
@@ -8028,19 +8028,19 @@
         <v>90240</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69374</v>
+        <v>71339</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115156</v>
+        <v>115966</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1360498984985404</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1045921140011364</v>
+        <v>0.1075537185467915</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1736152063784149</v>
+        <v>0.1748357805153306</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>260540</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>240078</v>
+        <v>240409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>274722</v>
+        <v>275865</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.855888066698177</v>
+        <v>0.8558880666981767</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7886678807578359</v>
+        <v>0.789755252495235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9024772025191058</v>
+        <v>0.9062327635886479</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>417</v>
@@ -8078,19 +8078,19 @@
         <v>312506</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>296846</v>
+        <v>298476</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>323622</v>
+        <v>324491</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8707885376840545</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8271515490644588</v>
+        <v>0.8316938223959697</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9017630978212628</v>
+        <v>0.9041854969813765</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>632</v>
@@ -8099,19 +8099,19 @@
         <v>573045</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>548129</v>
+        <v>547319</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>593911</v>
+        <v>591946</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8639501015014595</v>
+        <v>0.8639501015014597</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8263847936215843</v>
+        <v>0.8251642194846697</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8954078859988637</v>
+        <v>0.8924462814532086</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>9535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4587</v>
+        <v>4590</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17784</v>
+        <v>17724</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05030128184566614</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02419702108137426</v>
+        <v>0.02421180098130274</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09381715398237289</v>
+        <v>0.09350083156419473</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -8224,19 +8224,19 @@
         <v>13834</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9466</v>
+        <v>9503</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20262</v>
+        <v>19959</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06305482633836734</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04314692307143385</v>
+        <v>0.04331580306146655</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0923568247101666</v>
+        <v>0.09097352444574244</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -8245,19 +8245,19 @@
         <v>23369</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16784</v>
+        <v>16521</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32655</v>
+        <v>33542</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05714321176654542</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04104203027984973</v>
+        <v>0.04039905542604719</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07985189009191551</v>
+        <v>0.08202048320448316</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>180024</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171775</v>
+        <v>171835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>184972</v>
+        <v>184969</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9496987181543338</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9061828460176273</v>
+        <v>0.9064991684358058</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9758029789186257</v>
+        <v>0.9757881990186974</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>444</v>
@@ -8295,19 +8295,19 @@
         <v>205556</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199128</v>
+        <v>199431</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>209924</v>
+        <v>209887</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9369451736616325</v>
+        <v>0.9369451736616327</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9076431752898334</v>
+        <v>0.9090264755542582</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9568530769285661</v>
+        <v>0.9566841969385335</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>690</v>
@@ -8316,19 +8316,19 @@
         <v>385580</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>376294</v>
+        <v>375407</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>392165</v>
+        <v>392428</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9428567882334544</v>
+        <v>0.9428567882334545</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9201481099080845</v>
+        <v>0.9179795167955167</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9589579697201503</v>
+        <v>0.9596009445739526</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>28649</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20032</v>
+        <v>20029</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40130</v>
+        <v>38895</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1140239151525556</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.079725763866501</v>
+        <v>0.07971522308225476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1597166161545122</v>
+        <v>0.1548001543479202</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -8441,19 +8441,19 @@
         <v>29067</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21346</v>
+        <v>21074</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38815</v>
+        <v>38227</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1141896458136031</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08385875951929629</v>
+        <v>0.08279148574428065</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1524863456665378</v>
+        <v>0.1501754705217527</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -8462,19 +8462,19 @@
         <v>57716</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46386</v>
+        <v>46053</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72084</v>
+        <v>71706</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1141073191767173</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09170676122276303</v>
+        <v>0.09104995877617904</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1425148121821339</v>
+        <v>0.1417658472312818</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>222609</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211128</v>
+        <v>212363</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>231226</v>
+        <v>231229</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8859760848474443</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8402833838454878</v>
+        <v>0.8451998456520797</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.920274236133499</v>
+        <v>0.9202847769177454</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>397</v>
@@ -8512,19 +8512,19 @@
         <v>225479</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>215731</v>
+        <v>216319</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>233200</v>
+        <v>233472</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.885810354186397</v>
+        <v>0.8858103541863969</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8475136543334622</v>
+        <v>0.8498245294782473</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9161412404807037</v>
+        <v>0.9172085142557193</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>709</v>
@@ -8533,19 +8533,19 @@
         <v>448087</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>433719</v>
+        <v>434097</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>459417</v>
+        <v>459750</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8858926808232827</v>
+        <v>0.8858926808232825</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8574851878178662</v>
+        <v>0.858234152768718</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.908293238777237</v>
+        <v>0.9089500412238208</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>127406</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>104326</v>
+        <v>106339</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>152393</v>
+        <v>155199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1892524459369341</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1549680952459233</v>
+        <v>0.1579592834775715</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2263684583615976</v>
+        <v>0.2305369186287553</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>192</v>
@@ -8658,19 +8658,19 @@
         <v>166494</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>146062</v>
+        <v>145422</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>189401</v>
+        <v>190584</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2253342870082531</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1976815057107379</v>
+        <v>0.1968150721193105</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2563369118707921</v>
+        <v>0.2579370594973079</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>291</v>
@@ -8679,19 +8679,19 @@
         <v>293901</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>263106</v>
+        <v>259517</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>329574</v>
+        <v>325796</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2081323503695902</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1863246862252302</v>
+        <v>0.1837830167870216</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2333955803487007</v>
+        <v>0.2307200606177736</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>545802</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>520815</v>
+        <v>518009</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>568882</v>
+        <v>566869</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8107475540630659</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7736315416384025</v>
+        <v>0.769463081371245</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8450319047540767</v>
+        <v>0.8420407165224284</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>720</v>
@@ -8729,19 +8729,19 @@
         <v>572383</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>549476</v>
+        <v>548293</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>592815</v>
+        <v>593455</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7746657129917469</v>
+        <v>0.7746657129917467</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.743663088129208</v>
+        <v>0.7420629405026921</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8023184942892619</v>
+        <v>0.8031849278806894</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1180</v>
@@ -8750,19 +8750,19 @@
         <v>1118184</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1082511</v>
+        <v>1086289</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1148979</v>
+        <v>1152568</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7918676496304098</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7666044196512993</v>
+        <v>0.7692799393822263</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8136753137747696</v>
+        <v>0.8162169832129785</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>40977</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27793</v>
+        <v>28994</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56521</v>
+        <v>56950</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05788652124630487</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03926269873734614</v>
+        <v>0.04095895139325334</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07984533101325102</v>
+        <v>0.08045093533538768</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -8875,19 +8875,19 @@
         <v>42451</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31185</v>
+        <v>31496</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>54862</v>
+        <v>55172</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05856098685041254</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04301930236296456</v>
+        <v>0.04344961724166716</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07568202160863631</v>
+        <v>0.07611020565415894</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>84</v>
@@ -8896,19 +8896,19 @@
         <v>83428</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>66571</v>
+        <v>65730</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>103469</v>
+        <v>101273</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05822775889411705</v>
+        <v>0.05822775889411703</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04646261850059612</v>
+        <v>0.045875778306222</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07221575774497901</v>
+        <v>0.07068279141821075</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>666905</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>651361</v>
+        <v>650932</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>680089</v>
+        <v>678888</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.942113478753695</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9201546689867488</v>
+        <v>0.9195490646646122</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9607373012626537</v>
+        <v>0.9590410486067465</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>861</v>
@@ -8946,19 +8946,19 @@
         <v>682446</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>670035</v>
+        <v>669725</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>693712</v>
+        <v>693401</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9414390131495873</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9243179783913638</v>
+        <v>0.923889794345841</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9569806976370355</v>
+        <v>0.9565503827583327</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1496</v>
@@ -8967,19 +8967,19 @@
         <v>1349352</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1329311</v>
+        <v>1331507</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1366209</v>
+        <v>1367050</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.941772241105883</v>
+        <v>0.9417722411058828</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9277842422550211</v>
+        <v>0.9293172085817895</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9535373814994036</v>
+        <v>0.9541242216937782</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>366387</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>316999</v>
+        <v>323606</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>407169</v>
+        <v>410911</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1145256951120826</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09908772796387853</v>
+        <v>0.1011531224447863</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1272732680287439</v>
+        <v>0.1284429699255716</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>605</v>
@@ -9092,19 +9092,19 @@
         <v>467580</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>428741</v>
+        <v>428682</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>506501</v>
+        <v>507207</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1371484006573216</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1257563462065384</v>
+        <v>0.1257389217908425</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1485644074627164</v>
+        <v>0.1487716353345173</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>901</v>
@@ -9113,19 +9113,19 @@
         <v>833968</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>782166</v>
+        <v>780659</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>898302</v>
+        <v>898295</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1261967153310385</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.118358105810615</v>
+        <v>0.1181300526318954</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1359317860020401</v>
+        <v>0.135930775314454</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2832785</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2792003</v>
+        <v>2788261</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2882173</v>
+        <v>2875566</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8854743048879172</v>
+        <v>0.8854743048879173</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8727267319712562</v>
+        <v>0.8715570300744283</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9009122720361215</v>
+        <v>0.8988468775552138</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4216</v>
@@ -9163,19 +9163,19 @@
         <v>2941722</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2902801</v>
+        <v>2902095</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2980561</v>
+        <v>2980620</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8628515993426784</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8514355925372833</v>
+        <v>0.8512283646654829</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8742436537934616</v>
+        <v>0.8742610782091577</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6967</v>
@@ -9184,19 +9184,19 @@
         <v>5774506</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5710172</v>
+        <v>5710179</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5826308</v>
+        <v>5827815</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8738032846689615</v>
+        <v>0.8738032846689616</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.86406821399796</v>
+        <v>0.8640692246855459</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8816418941893849</v>
+        <v>0.8818699473681045</v>
       </c>
     </row>
     <row r="30">
